--- a/biology/Botanique/Parc_botanique_de_Haute-Bretagne/Parc_botanique_de_Haute-Bretagne.xlsx
+++ b/biology/Botanique/Parc_botanique_de_Haute-Bretagne/Parc_botanique_de_Haute-Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc botanique de Haute-Bretagne ou anciennement parc floral de Haute-Bretagne, est un parc privé ouvert au public d’une superficie de vingt-cinq hectares, situé en Ille-et-Vilaine, à dix kilomètres au nord de la cité médiévale de Fougères. 
@@ -513,7 +525,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc botanique de Haute-Bretagne se situe sur la commune du Châtellier, à dix kilomètres de Fougères entre Rennes et le Mont Saint-Michel, à proximité de la sortie 30 de l’A84.
 </t>
@@ -544,9 +558,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc botanique de Haute-Bretagne est créé à partir de 1994[1] autour du château de la Foltière. L’édifice est un ancien manoir qui fut le quartier général du Comte Joseph de Puisaye, lequel tenta de soulever les départements de l’Ouest pendant la Révolution française[2]. En 1820, le domaine de la Foltière est racheté par la famille Frontin des Buffards qui l’aménage en construisant l’actuel château et un parc romantique à l’anglaise [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc botanique de Haute-Bretagne est créé à partir de 1994 autour du château de la Foltière. L’édifice est un ancien manoir qui fut le quartier général du Comte Joseph de Puisaye, lequel tenta de soulever les départements de l’Ouest pendant la Révolution française. En 1820, le domaine de la Foltière est racheté par la famille Frontin des Buffards qui l’aménage en construisant l’actuel château et un parc romantique à l’anglaise .
 Le parc, abandonné une grande partie du XXe siècle, est transformé à partir de 1994 par son nouveau propriétaire, Alain Jouno. Il transforme 25 hectares de la propriété en jardins thématiques liés à l’inspiration poétique, l’histoire des jardins ou les souvenirs de voyages. Au fil des ans il collectionne et met en scène des milliers d'espèces provenant de tous les continents. 
 Le Parc dispose d'un salon de thé, d'une pépinière et les chambres du château se sont changées en chambres d'hôtes.
 </t>
@@ -577,13 +593,53 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins thématiques sont de styles japonisant, italien, français, anglais, perse... Ils sont le reflet d'un monde multiple. Chaque jardin manifeste sa propre ambiance et a été dessiné pour s’adapter à la topographie du domaine de la Foltière. L’environnement du parc est très vallonné et boisé et ses contours sont délimités par une barrière d’arbres.
-Les vingt-quatre jardins du jardin botanique sont regroupés autour de trois thèmes dominants[3] : les jardins de l’Arcadie, les jardins romantiques et les jardins du crépuscule.
-Liste des jardins thématiques
-Les jardins de l’Arcadie
-Ils évoquent la genèse des jardins...
+Les vingt-quatre jardins du jardin botanique sont regroupés autour de trois thèmes dominants : les jardins de l’Arcadie, les jardins romantiques et les jardins du crépuscule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des jardins thématiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Les jardins de l’Arcadie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils évoquent la genèse des jardins...
 L’allée des perles blanches.
 Le jardin des mille et une nuits
 La cité antique
@@ -600,8 +656,47 @@
 			La cité antique
 			Le bosquet de Bambous
 			Le jardin préhistorique
-Les Jardins Romantiques
-Ils évoquent les premières plantations de la propriété ...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des jardins thématiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les Jardins Romantiques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils évoquent les premières plantations de la propriété ...
 Le jardin du Soleil-Levant
 Le bois décisif
 Le jardin des parfums exotiques
@@ -612,8 +707,47 @@
 			Le jardin du soleil levant
 			La source bleue
 			Le jardin des quatre saisons
-Les Jardins du Crépuscule
-Ils évoquent le crépuscule d'une vie...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des jardins thématiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les Jardins du Crépuscule</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils évoquent le crépuscule d'une vie...
 Le reposoir de l’harmonie du soir
 Le jardin des nuits étoilées
 Le jardin des rêveries d’un soir d’été
@@ -624,41 +758,113 @@
 			Le jardin d'une nuit étoilées
 			Le jardin des rêveries d'un soir d'été
 			Le jardin du vieux chêne
-Espèces végétales
-Le jardin botanique de Haute-Bretagne regroupe des milliers d’espèces végétales sur un domaine de vingt-cinq hectares. On y recense des arbres fruitiers, des plantes vivaces, des arbres remarquables, des arbres d’alignement. Plus de 7 000 taxons ont été recensés dans le parc. En mars, le climat est favorable à la floraison de certaines plantes comme les camélias, les magnolias campbellii, les daphnés ou les narcisses. En avril, ce sont les jacinthes des bois ou les azalées qui fleurissent à leur tour.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces végétales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique de Haute-Bretagne regroupe des milliers d’espèces végétales sur un domaine de vingt-cinq hectares. On y recense des arbres fruitiers, des plantes vivaces, des arbres remarquables, des arbres d’alignement. Plus de 7 000 taxons ont été recensés dans le parc. En mars, le climat est favorable à la floraison de certaines plantes comme les camélias, les magnolias campbellii, les daphnés ou les narcisses. En avril, ce sont les jacinthes des bois ou les azalées qui fleurissent à leur tour.
 Une riche collection de plantes de terre acide est implantée. Particulièrement bien adaptée, cette collection comprend principalement rhododendrons, érables du Japon, camélias, embothriums, magnolias, kalmias, ou des hydrangeas.
 Des espaces sont destinés aux enfants, à l’image du parc préhistorique, du labyrinthe des Robinsons ou du grand pont suspendu.
-Accessibilité
-Les allées ont été élaborées pour être accessibles aux enfants, aux personnes à mobilité réduite ainsi qu’aux visiteurs en fauteuil roulant. Le parc est accrédité du label « Tourisme et Handicap » avec les mentions « Moteur, Mental et Auditif » pour les visiteurs seuls et les mentions « Moteur et mental » pour les groupes.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parc_botanique_de_Haute-Bretagne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_botanique_de_Haute-Bretagne</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Accessibilité</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les allées ont été élaborées pour être accessibles aux enfants, aux personnes à mobilité réduite ainsi qu’aux visiteurs en fauteuil roulant. Le parc est accrédité du label « Tourisme et Handicap » avec les mentions « Moteur, Mental et Auditif » pour les visiteurs seuls et les mentions « Moteur et mental » pour les groupes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_botanique_de_Haute-Bretagne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Culture et de la Communication a décerné le label « jardins remarquables » au parc floral de Haute-Bretagne en 2005.
 Le ministère chargé du Tourisme a décerné le label « Qualité Tourisme » en 2011.
